--- a/biology/Botanique/Plante_non_vasculaire/Plante_non_vasculaire.xlsx
+++ b/biology/Botanique/Plante_non_vasculaire/Plante_non_vasculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes non vasculaires se définissaient, avant les dernières classifications, comme l'ensemble des plantes, y compris les algues vertes, qui ne possèdent pas de vaisseaux conducteurs de sève brute ou élaborée (xylème ou phloème).
 Bien que ne possédant pas de tissus spécialisés pour les vaisseaux, certaines plantes non vasculaires possèdent des tissus chargés du transport interne de l'eau.
